--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/14_Batman_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/14_Batman_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B09C74E-0B56-4EB3-A193-666D883E7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81B62E0-91B3-42C5-95A1-318611643895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{8E300170-9564-4401-8521-57B6A06D00D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{9E99A482-B5B5-41C8-B6DF-FDA199A111BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -944,14 +944,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3AF3DE62-4026-4777-A426-7B6D880AD487}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{978488C0-BF0E-44E8-9961-A2C6A65DF688}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{45BA6291-F813-45C7-88AC-6DD1ADEB263C}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{FCED5C30-4BCB-4172-A042-9CDD767265BC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{7B07BC96-923F-4F35-8CB1-072CC87D71A5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{243BC76B-29BF-483F-9AE9-3999CD21D593}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{BCECDAE6-3DAA-4D0B-8008-5685E80AEB4E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{55C60F09-028F-43C6-B78E-40B2E5A58FA3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B1741766-7652-4AA4-A46A-041F530DF022}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{773CC3A4-CE55-4277-88DE-BB24636A3D27}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F60E1B3E-BFD4-4B6A-8987-AFB68F2EC3FA}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{77BBBB0A-3725-4625-9600-C802DC8EF13C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5275A56E-2214-406B-BDEA-3766FCD13AEB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DFA29041-3AED-453B-81A6-4CD3BCA43AB4}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7A99717D-E103-44DD-BBF2-07EF11DB3AC1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{12871B5D-8BE7-44E2-839C-1D7AEAE537B4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B667D594-DF66-4517-A470-2DC162247EB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE9D902-699E-4482-AEF9-D5D4803255F4}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2617,18 +2617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C20537F-ED38-48EE-98FF-7C2D5E9C6DAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84E8CAEA-D641-467B-83C6-D7417DB53C18}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{121E23CC-9F1A-4FDC-9F00-AAC9BF36149E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D88DBB6-E29A-4C1D-A1E0-362FA9241FD8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{916D12B8-68ED-44A6-B5E7-EAF90462BF48}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{3079258B-7134-4919-89F0-CA9CEBCD3FC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92CC1ECC-54A0-4442-823A-87392699CDED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{857C69F1-CCC7-41A5-8B82-8520EF1AE08D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CD096BF-0918-47E7-BE12-E3807BE03FEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D21F6B18-278E-43E6-BF43-F6C662B0D061}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3976654A-2849-4D93-A2BE-404F024BC103}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{947CEFC5-FA78-4FAB-AB82-CBE669ECC750}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{174B4C5E-659B-4A15-B9F1-D1326E31CE40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65C310B3-ACF5-4A14-A7C0-5BB71F598535}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26FDECD1-801A-4BC8-90CA-2622EABD8CB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{582A20DB-5937-4819-83DB-3DC0339D084A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{23635553-BECB-4459-AE37-3FFE3D3BD8C2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{F02FD5DB-B14B-4291-BD24-9F55B1B214FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAAE4B9A-B873-4E03-B51E-E552DF1E6D40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09FA2A18-8B65-466F-A6C2-B413E0CF569E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2D23950-3921-4D15-8D06-46FC4B5508AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A3D4166-1751-4D67-9869-4D0115FED07F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1451FAF6-732D-41D5-821F-A7D4C2B571B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{706ECF38-77CA-4270-9A92-1DC39FE3D291}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2641,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC9D03E-1382-4780-9D27-C937DBAF0195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27843A3-7AA7-4B48-A203-8BFB7D0BD3D6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3914,18 +3914,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEE88E6C-13B3-4412-949F-C8263FA4324F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B10B7AC-5384-468F-AF60-A08434752488}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA7F8ACE-29A1-40C7-A072-D81C9C5AE414}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA88C4D2-7CDA-47AC-B266-6B013BB5ED45}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8753FAD4-11D8-4996-A44D-D9F7CCFE5DA7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{C88DCEF0-5657-47ED-AF46-6B98F9141CD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32421AF0-6004-4D5E-B7EA-18FE8F78A443}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A6B5640-04AA-4343-A17E-CADA90E36F2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9E57AF0-6A45-4ABB-8990-13C8DCEAC01B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9608FC98-658E-4384-B8AF-2C02191B35D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B21AF2A-393A-4B9D-BFF5-C72F7BD51399}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B1FF6B5-5EE2-4CE7-812A-121C8C395609}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD8CEBFE-2E1E-4BEB-A84D-6F0AD45A8811}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3836F856-C28B-4507-B922-00B16923AD75}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{211DD213-75E1-4C36-8F67-E4AE06E79E5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3DF9A1A-47D3-4B46-B101-539305C62A7F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9902CD44-AFE8-464A-AA03-CBDC7A44AB1C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{AF7D7E02-BEE9-40ED-8FE6-88F9908C72D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4249184-65B2-4FF6-975D-B0CD3787096A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20106A4C-3907-4129-A1AA-135F3238D3F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97444AFF-825F-40EE-BFD8-C0B5075FE840}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A581355C-C284-46F9-8CFE-6866E349672B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0951BC07-82BB-4EDA-9149-05D72CBA7D13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{821DBBD0-15D9-430E-A2BA-733EC2A87640}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3938,7 +3938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD81C9A-BD18-409D-82E9-59C46A9C8A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB37CF-A3A2-49EC-9298-41578D6E01D0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5211,18 +5211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E71F964-8EA3-415F-A0F7-1D46C2238D34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66262A06-8E50-44D7-BF92-9E559751A979}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{406F73F3-B574-4174-A350-6FC72FF2B9E1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72224089-7A8F-4709-B634-71AFA7753AD8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{04438665-E3C3-4BE8-BF1D-7D74E256F04C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{EEF089AF-9450-4647-AE72-876DBA859B03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30EDBF4A-7950-4683-AAF2-AEDDE341E386}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{240036EA-3E34-4F9D-BF6C-D58DCC94DA27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{392708D6-8799-4570-B7CA-5F3017BDE296}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18766BE8-929C-48F8-8A27-77C3418DAFB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D92E4401-FDF3-4F17-8943-F6CB37BFB96F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C0F6518-1250-4B73-9188-B9BBD4CE3184}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E010EAC0-AAB2-4D32-BC34-15E83FFFB855}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CFAD1E7-2299-4368-A4CF-685890607EBD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DDE8746C-AB5D-4DFF-BD9D-15998E5302E4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99FAD6EE-965A-4104-8BFF-D2C14783B87C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3FC22EF7-11BE-4DE0-8FE5-C6EEF28EE36F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{66692D55-F924-4276-B333-0C7A4966F2F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55525932-F000-4F1A-A712-5A77648147FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2653C3D3-4A0E-4DB0-B4EA-DDB13F30FBAA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C666644-0A86-430E-A942-25A58EAE46F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F83F274-FFCC-45F5-B7F1-605127B0D267}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{500F3546-8EDA-441D-8DF1-088952330F89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{684D79A3-EDDD-433E-91C4-4D3C5894E495}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5235,7 +5235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF584B9-20A9-4D39-A8F2-91BEBA752245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CA4CB-5E52-44B3-9878-9DFA97F27F49}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6500,18 +6500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC910F7C-68E4-43F0-B211-D915B6E73F47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CA7CFD4-65DC-4D40-A291-D8D8028DF20B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD11703A-8722-4549-AFE4-C67D1323C9B4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D28786F-1ED5-434E-9C0A-B89A9B2C7DF1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{74440F2D-1DD9-4153-8888-49AEABA68A87}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{D4E85DC7-D14C-4853-9DBD-65B7872D6CF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D32B49AB-D15E-4A80-87BC-1F58680AAF74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E07CA5BE-9215-4EFD-8C7A-9B4B5ECE73B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B994653-BB7A-4A33-B91E-C6E3DCBD8A80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6CD9971-B6AC-4C70-BD38-E8D115DB6B3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00C8A83F-0782-443D-A865-B98A9D4A0571}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1FE7454-CBAB-433A-B186-8B280401D568}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{786242AA-C9E4-4825-AF96-99F23F923D9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2C1E2AD-5A72-4DBB-AC8C-524F67B20A1B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9648039-7F61-476A-AB56-37F31D0B5AD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AB2168A-7540-46B5-A59E-8CF12088B065}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7AABFA47-9450-44FB-88BA-3E55AE4F4DCE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{469E4987-5083-4398-9778-A6F27260F0F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F66460B8-205A-4C39-B927-D4E213ACA2DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB702B3B-4620-4379-8EE8-038672D81221}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8289DE0-A669-4E60-ABED-163DA168135E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14E53D6A-E264-4183-B668-E9C2718B77FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{443122B5-F876-418D-BF07-EC155C6E38D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{292FF2D4-50B2-4FAE-8AB8-10A54B492458}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6524,7 +6524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140AE54-1864-414F-9C11-FECBED704603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3592D3F2-32F0-4581-9FE9-1D033D3B6901}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7815,18 +7815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA18553D-4249-4993-85AE-5F65940617D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40BEFA77-D1A5-4068-8AC5-3415B25F9F72}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F57ACA5-2DC8-497A-ABC4-062C23F1A007}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B812707-915D-4251-9FD4-BA7C39198BA2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E8C96079-99DD-44A1-9D14-BCFE5F5DBAFB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{2F355AAB-08BC-40D7-A0A5-9D883D4C394B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CB18220-15DA-4F56-A0FB-A4C0A15A30CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7966A0EC-DD89-4059-92AF-85F48912E64C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D9250BB-54F4-411D-8389-027F22273D2A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D21E87C4-21B8-45B9-9574-3498315B73C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA395DC8-CFAD-4CB5-AB3B-437421666FFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DAC6A1E-9408-430A-BF43-D21A9EC04EEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6138421C-3C62-4B65-86E1-5CE0F91FEB1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B311A3D-21D2-40DC-BAB4-CAF0CA8A1041}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D124BC8-4361-4D31-8E11-8C13DD275C43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60B3C3E0-D231-4FE5-B7A5-A91D975C2464}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{781CE85B-3B1D-4C62-BE7C-6AAF00D1A9EA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{7F81EB6E-C8D9-4C15-BBCA-A59D1FB04944}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B76FB8F8-3865-4960-B7C2-4234670D361B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18BB2DB3-719A-405E-8FD7-1F1150E4F174}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90CBE2EA-792F-4582-83C6-D62AF207BC12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3152BFA2-43A3-4A5F-B06B-FBE6A4B3A810}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB016763-B343-40D5-8602-82D61D4F3169}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE362396-71D4-4586-8706-2F2456136FF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7839,7 +7839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D412A98F-6835-4DF1-8DB7-3AC5D502AA71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889ED70E-534E-402B-8675-42389F475C80}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9132,18 +9132,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C4712E2-7FD3-4092-8C61-830E86695936}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C0A09E0-869B-4A4D-9646-5B290B087819}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2245FFF3-5BD7-4FAC-8862-6F2E162771FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2BBA88D-3EC5-4C93-AE99-3A612257E359}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AAE4333D-BD18-4D96-8EC5-62ECA38A7FD8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{CE03159B-C669-444B-8C39-6B62B7E37FDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E58E46DD-A422-4916-BC46-967C7312AA56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A337B9D-7938-4F31-82F5-BEECB4C36EE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0D7E478-FCFB-404F-A11A-2A39AE27B739}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD3F176E-BCE0-4EDF-B000-DE5513A6A678}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DF56F77-3152-43F0-B449-9DB2CCEE63B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B6D5C43-4E76-4AEB-BC8B-3BBA1F92E367}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ABE59DB-E0C8-47A0-89E5-F3E9AB40D25C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90A457EA-C71F-41AF-B0C4-B9644EAF3F47}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{00662D20-9D00-42CD-B186-0A09CFD6FA21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D389E87-E001-4642-ADD0-1E039D749203}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{58DEBBE8-F40A-4DB7-8AC4-6795AC3B30A9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{F2B0EF25-889D-4BCD-AE4A-CD8D2678F9D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D1DA4E2-7592-4BB9-8978-8F373735CEF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAE71182-9FA5-4A27-8061-07605CFF192C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC533D6F-7496-402F-8A1A-9CBCD8F47010}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{139516C7-079E-4B2E-9DB2-79C7471781B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC5472FC-1240-4038-848B-92B471B42E59}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2E69268-1521-4EBB-A808-9B777217DB88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9156,7 +9156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52162047-5BBE-446A-ACAA-74A3C85E6A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72C6ACC-7C40-4668-8CE3-EEFB0173C76F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10449,18 +10449,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{249BEBBF-530C-4B2D-BC8A-B0E8F288B2DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16A08BB4-B1C3-480D-BB3B-5D00AA30CF49}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36B5B51D-7E46-4CA5-915D-E42E112DAD68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A967EC07-01A1-4EF1-BFA0-13885A63B839}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BB0C586E-0428-4F55-A5EC-4A0BB5D43CB4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{C1E53A98-B3A1-41A8-B724-E8477E25CC88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75F002D0-824E-4340-BDB8-B12E2B737A9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{156B4C4E-7EF7-4196-846F-80D46A912178}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0CADDB1-7B4C-418C-9DA9-C65765F85F05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0B56B83-2458-4262-8032-D60798AB23F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BE3EFBF-B8B2-4C6E-846C-EC9E4631BE41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C96B97D0-02CD-4167-A704-DA756F04891E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{324C299C-4C27-4DB9-8D54-C9C50C58DF38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FDCF357-E30C-4C06-91E9-742B010F8EDD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF16A2FD-BB0E-46D4-AB9B-D091DF7468B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6693F801-8674-41D4-8FD7-8F5EC5F7555D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{059EFD91-A280-43D9-8A5D-F68093AAD784}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{EC9FD990-3D76-477E-A908-48C93EED4652}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD7F762E-82CF-406F-95D9-709B2E2D580C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC0B7CF5-48A9-4CB8-A477-B5F664BC3E06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47F73CCF-1B8E-4F55-92A5-20815786A368}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7563CA9A-C0B5-4E1D-912E-3BD1AC439781}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BABB57F9-B211-41A2-8BA0-B9841A94751B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47D402EC-0B1C-4001-87F2-2F636A69784A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10473,7 +10473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E06BC-855F-4213-8263-FD533F90EAB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F8092D-2D6F-4FD2-B15B-5AABBFEFB44D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11758,18 +11758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50D2D641-4842-4141-96F2-8FF806B59784}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D9120F2-6533-4E8B-99FE-2AC156EACD22}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D57B6565-FA52-4B7B-B806-84BBC938FCB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D4882B4-28AF-411D-BC64-D7F511C680DA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C98277F4-343E-4BFB-AB2C-62CF85016811}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{0A45AB2C-49F9-43B4-9643-E64805BB222F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38265460-6730-42CA-AE70-71820ECD3227}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE8152B5-5291-42B3-BF14-7003F5222A39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B52725D-F158-4CC1-A93A-E83494A66AEC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89D2BA1E-332E-4AD9-B1A5-B4BA5D572C54}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A3C656A-BFBC-43AD-95BE-43A7BC0E5FB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DB23397-6DD0-4101-8AC9-E5545CDC7051}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DE73F85-7DDC-4C71-B4C4-22A893239024}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D841D18-1FDC-4F16-B4D1-4636FBEA30F6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4FDC1505-FE0A-4E82-9017-140F0EFC8625}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EC409A3-38A0-40D4-A0D5-8C84A753AEBB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A46B4990-085A-4BD4-BF16-0245ED685D03}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{D8D6F5D2-F07A-4E2B-9804-436B994B8154}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5061D6C1-620C-4FCC-B19B-7D086FE63330}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36E44B2B-3899-482F-B05B-8B582EF63425}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4699B292-32C4-4B01-A872-0E19BB4408A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{849DDC67-F275-44D3-B5C5-7CC0C29A4CEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DE757E3-496E-49A4-B585-A993C676C8FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{167DCF2E-ED11-4096-AB23-48EAB3F2EC13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11782,7 +11782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8912F8BA-93DC-4CB0-B39F-2D49EA13C2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422F625F-0BFE-4937-A605-FE97A8F447D9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13067,18 +13067,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B54FB004-54E9-480F-8365-4B4B7B814B2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54A2EBDF-E60C-4C4C-AB57-822C68A6D1EF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6C4CC43-9448-48D5-B170-1E2A37A1C3B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2DAA834A-0CE7-4BF1-A1EB-7FBEEFEB0F06}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E62C1C87-3AD3-499F-BE55-A92F8B38195E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{7D92CB6B-D446-4258-B64F-FBE576BB2BFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD887998-3299-458E-B59B-DF856A7273A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17A431E5-B723-4E8F-B92A-09902C94C7BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04512D70-279D-46FE-95CE-3CDEA710436A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0004E3E3-1BCE-49B2-83A0-2B51F7353AFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55E8E3B8-643D-4726-8233-4930C881F178}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD5B0D15-D05A-46E6-8CDC-63832D6CF092}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0282C7E-F0BC-40CB-9E77-82D1B119F124}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75CB803E-CD60-4A52-BF7E-2ECE3BF69465}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AAAB5284-7899-4049-8CED-620A87FE8C0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E4F1CA5-A91B-447D-BB54-8A7FD0C76F93}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D8DC5D08-E42A-4223-89C1-15A7B8A0DE13}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{D8560855-302D-4C79-BE88-CBF8AC20668C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32387DAF-3AB8-4E19-8865-25C158478948}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96DB3C51-F014-4D76-A60D-B120279DEEB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B77E395-6026-4D28-AEE6-8799F65B6F1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E52072F-11A6-46DC-BA26-98E87B0C5575}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{778BABA5-419B-412F-AF01-FD4D34B074A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA2F11A8-029D-4228-B91D-E4641C640057}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13091,7 +13091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDFA41C-E86F-4630-8343-734B0BC93BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5ED04B-AA7F-429B-9E34-8FFF6DDFF106}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14376,18 +14376,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7AB61E6-6CCB-431D-BB46-46A28A1F8FD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49C6662F-C09C-412F-A5A9-712ABD2D94E5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2DFDFEE1-D8E6-4CC6-9AAA-233C85A3FDE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{649507F2-484F-430E-BFCA-776BA51CB3EE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1F4CE2F8-854F-4CFD-90A7-88B7A3CDAA6E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{0F9F7656-B973-49F7-ACF5-1FD6541C5241}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF3BA108-A801-4D06-8023-42CA0585877E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C44ED2D-4EA5-4CA0-8033-DEE776128785}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7AB4BE9-B195-4ADE-A9BD-265A6DCD213D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{420A0914-0967-48B1-B50E-588AC52C2E60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C303723-A3D5-4947-86C4-D2D6A8743B1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35A3A158-CC1F-4F30-A29A-9394B3D8BEAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61948F89-A6F6-40D1-A638-F10BFF1A4145}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0681DB3-EB7D-4215-A4C8-DDD81775B259}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2C65D5B-C04F-494C-8786-F691DF921AB1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AE96425-56A0-4766-876E-4FF7A0AB528E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4BFEAEEE-BC5D-43BD-9B81-B4AE2ADC3EE8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{04EE6BBB-6942-4FCE-B6F7-2351B96714CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FFD2540-48A6-4145-B69D-44BF715850EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38A631E6-1485-48F1-9E25-D995EF2A9C9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20E841DB-8604-4A9F-A253-25118393CFCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{628E542B-9899-4D61-B92F-B98623648303}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7919F3C8-6ABF-41F7-9314-286C1924F85C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1ACC071B-D38B-4100-AB81-5B2C780E9B55}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14400,7 +14400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A44E7D5-5D03-4680-B792-D8121068D11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C119249E-1A80-4AFD-B0BD-74A16BF9AC21}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15681,18 +15681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F129F657-947D-4D99-AE59-AA0AD705D663}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{033919EC-33F2-4AC4-869F-1D19EE135337}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B693EE2-CED4-477E-A39E-E6AD164D7A53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D073E7DD-7589-491C-8CFB-70352CFE4D01}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2993F6BF-5EAE-465B-B970-7E92338170D8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{7FE40FFF-3A67-4306-8991-4F05097514E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CAC2D17-CD6C-4A41-BDB6-F8844AE38772}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA79362C-6505-46BA-BD6D-FC7E8FCDF7FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0575657-D9E0-4BEF-933F-3067397C238D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79E656A7-DC65-47C9-AF96-6416D6629791}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31491F5A-A271-492D-9753-4984B867F9A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE7F3A70-8DD2-4FD0-B120-ACC3A43D21E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97ADD55B-BB13-4215-8A94-BC16542A28BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07BA2246-8FC1-4377-9010-D2EA5DC7AF3D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB67421C-7F5B-4403-A0F8-54FC4411C828}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{668B57ED-7A9F-40C3-8E9F-468E9BBD663C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2DB71EA6-71A1-449C-B32E-00265A66241E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{2EF1497C-EE49-464B-8043-BC2BE6AF5175}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA23621D-7707-4AFD-A90E-31A3C5275DB6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64E4512A-2C65-4E81-AD1A-102876FC7EA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6342408A-FE21-4075-9074-36416990B4EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA88B6A6-9DE3-47D0-9E20-ACB8279992B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2438B39-3A60-47B3-B8EC-3416A016B4A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DC5ABC4-FEBF-4567-9547-9490B718D8AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15705,7 +15705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E822C7E6-ECA4-44BE-A9E8-57C88A0AB9AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D25999-31DC-4C95-84B1-5F3AD8F31B21}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16986,18 +16986,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D70B6CEA-5846-4AD9-89E5-E667D06AB552}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7894FFD0-23BE-4DC3-9FC1-71C7CA4F028F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F87A9D1-D14A-4C42-BD8C-7D98BBEC23D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14D98D85-C3C5-47C9-B857-12777A94A525}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5E20A67E-1D6B-495F-BAC5-899BA458B75E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{DA189F2A-7073-4402-89D5-FA4A18632870}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7B9DB61-9963-40BA-8307-E5C23208868A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C433FC20-5016-4C84-AC56-6B18A2C6341A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C9C9CC5-73FA-465A-8698-04236245CBA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74D297D8-66D5-42B8-9A56-209AD5F83AFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66AF0CBA-B561-4640-9F4E-15D338DB5782}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9470D31E-5B8F-4EF7-8A15-A0AEDC48DB14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD61A261-480E-44D5-9ECA-9F3EC459B354}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B290D696-0EBD-43FC-93C7-A0CE0E6898A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{975E5B9B-83B8-4452-B9C3-E14CD225A43D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6ED30637-DA30-4E7A-A76C-63C36DF32DE1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C7581DAD-4A99-4378-B800-B496E983445D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN'!A1" display="HAZİRAN" xr:uid="{C96EEF61-87BB-4CD8-8E94-61138CB0C371}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E1980EC-5AD4-4796-BE4C-822F7B60EFEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCB00E59-6128-47F9-A810-1214F6F28395}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A5779E0-72BC-4ADC-BEAB-293ED1068C39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F275E74F-D80A-4225-AA9D-62603615DFDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01DD5785-AB13-4DD0-9E17-6945F83110CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{594D094F-5C43-4A40-9F52-0A1910DD386A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
